--- a/ClassDiagram.xlsx
+++ b/ClassDiagram.xlsx
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Poste</t>
-  </si>
-  <si>
-    <t>id_poste</t>
-  </si>
-  <si>
-    <t>titre_poste</t>
-  </si>
-  <si>
-    <t>contenu_poste</t>
-  </si>
-  <si>
-    <t>date_poste</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>getPoste</t>
   </si>
@@ -46,6 +31,9 @@
   </si>
   <si>
     <t>deletePoste</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -69,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,47 +80,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,88 +369,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G2:I10"/>
+  <dimension ref="G2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="7:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="3" t="s">
-        <v>4</v>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="2" t="s">
-        <v>5</v>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
